--- a/Output Data/May11 Test Results/Maped Data.xlsx
+++ b/Output Data/May11 Test Results/Maped Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelsolomon/Desktop/Gao Group/Projects/Robotic Arm/Robotic Arm Control/Output Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelsolomon/Desktop/Gao Group/Projects/Robotic Arm/Robotic Arm Control/Output Data/May11 Test Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF718F5-2420-9743-BF99-02285A9DC878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513FE328-BD41-7E4A-A33E-BDB62D76800D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4080,12 +4080,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
@@ -4112,10 +4114,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>0.38877516019938202</v>
+        <v>0.3036442885478795</v>
       </c>
       <c r="B2" s="2">
-        <v>0.3036442885478795</v>
+        <v>-0.38877516019938202</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -4128,10 +4130,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>-0.7876538473401774</v>
+        <v>-6.7942653186507607E-2</v>
       </c>
       <c r="B3" s="2">
-        <v>-6.7942653186507565E-2</v>
+        <v>0.7876538473401774</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -4144,10 +4146,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>-0.35960347366993772</v>
+        <v>0.26218438074263312</v>
       </c>
       <c r="B4" s="2">
-        <v>0.26218438074263312</v>
+        <v>0.35960347366993772</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -4160,10 +4162,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>-0.57890124019602551</v>
+        <v>0.28316053043868278</v>
       </c>
       <c r="B5" s="2">
-        <v>0.28316053043868278</v>
+        <v>0.57890124019602551</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -4176,10 +4178,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>-0.64379658200998979</v>
+        <v>0.37599197791528649</v>
       </c>
       <c r="B6" s="2">
-        <v>0.37599197791528649</v>
+        <v>0.64379658200998979</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -4192,10 +4194,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>-0.45941491650823102</v>
+        <v>0.1978928892271293</v>
       </c>
       <c r="B7" s="2">
-        <v>0.1978928892271293</v>
+        <v>0.45941491650823102</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -4208,10 +4210,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>-0.85716709266205537</v>
+        <v>4.2252808181682769E-2</v>
       </c>
       <c r="B8" s="2">
-        <v>4.2252808181682817E-2</v>
+        <v>0.85716709266205537</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -4224,10 +4226,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>-0.72512718258175635</v>
+        <v>0.13383826110528341</v>
       </c>
       <c r="B9" s="2">
-        <v>0.13383826110528349</v>
+        <v>0.72512718258175635</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -4240,10 +4242,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>-0.53583705136652904</v>
+        <v>0.1024775265405426</v>
       </c>
       <c r="B10" s="2">
-        <v>0.10247752654054269</v>
+        <v>0.53583705136652904</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -4256,10 +4258,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>-0.6765047480455495</v>
+        <v>0.20667849425660831</v>
       </c>
       <c r="B11" s="2">
-        <v>0.20667849425660831</v>
+        <v>0.6765047480455495</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -4272,10 +4274,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>-0.57078454189349315</v>
+        <v>7.7138195015584738E-3</v>
       </c>
       <c r="B12" s="2">
-        <v>7.7138195015585076E-3</v>
+        <v>0.57078454189349315</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -4288,10 +4290,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>-0.32534424711856252</v>
+        <v>0.2302844664826092</v>
       </c>
       <c r="B13" s="2">
-        <v>0.2302844664826092</v>
+        <v>0.32534424711856252</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -4304,10 +4306,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>-0.42131140465645062</v>
+        <v>4.0048347122564422E-2</v>
       </c>
       <c r="B14" s="2">
-        <v>4.004834712256445E-2</v>
+        <v>0.42131140465645062</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -4320,10 +4322,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>-0.38787593313642321</v>
+        <v>3.3427984046277348E-4</v>
       </c>
       <c r="B15" s="2">
-        <v>3.3427984046279727E-4</v>
+        <v>0.38787593313642321</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -4336,10 +4338,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>-0.56378824679187101</v>
+        <v>1.09227586146318E-2</v>
       </c>
       <c r="B16" s="2">
-        <v>1.0922758614631829E-2</v>
+        <v>0.56378824679187101</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -4352,10 +4354,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>-0.55437591209641157</v>
+        <v>8.8924352488728389E-2</v>
       </c>
       <c r="B17" s="2">
-        <v>8.8924352488728417E-2</v>
+        <v>0.55437591209641157</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -4368,10 +4370,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>-0.89008024732242541</v>
+        <v>8.7129482588975113E-2</v>
       </c>
       <c r="B18" s="2">
-        <v>8.7129482588975168E-2</v>
+        <v>0.89008024732242541</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -4384,10 +4386,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>-0.34856981431499667</v>
+        <v>0.14717551432482509</v>
       </c>
       <c r="B19" s="2">
-        <v>0.14717551432482509</v>
+        <v>0.34856981431499667</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -4400,10 +4402,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>-0.75304841621809948</v>
+        <v>1.9406672254339272E-2</v>
       </c>
       <c r="B20" s="2">
-        <v>1.940667225433932E-2</v>
+        <v>0.75304841621809948</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -4416,10 +4418,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>-0.51208218036397701</v>
+        <v>-2.3294666548161591E-2</v>
       </c>
       <c r="B21" s="2">
-        <v>-2.329466654816156E-2</v>
+        <v>0.51208218036397701</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -4432,10 +4434,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>-3.7807997141908807E-2</v>
+        <v>0.41726415064360223</v>
       </c>
       <c r="B22" s="2">
-        <v>0.41726415064360223</v>
+        <v>3.7807997141908842E-2</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -4448,10 +4450,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>-0.5816515143225276</v>
+        <v>7.7392474514672932E-2</v>
       </c>
       <c r="B23" s="2">
-        <v>7.7392474514672974E-2</v>
+        <v>0.5816515143225276</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -4464,10 +4466,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>-0.5597280976002158</v>
+        <v>0.1087001568279688</v>
       </c>
       <c r="B24" s="2">
-        <v>0.1087001568279688</v>
+        <v>0.5597280976002158</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -4480,10 +4482,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>-0.84185047564563653</v>
+        <v>0.31596872165511669</v>
       </c>
       <c r="B25" s="2">
-        <v>0.3159687216551168</v>
+        <v>0.84185047564563653</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -4496,10 +4498,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>-0.60701070707773797</v>
+        <v>1.558705981692377E-2</v>
       </c>
       <c r="B26" s="2">
-        <v>1.55870598169238E-2</v>
+        <v>0.60701070707773797</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -4512,10 +4514,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>-0.3705240645982531</v>
+        <v>0.1653033838760733</v>
       </c>
       <c r="B27" s="2">
-        <v>0.1653033838760733</v>
+        <v>0.3705240645982531</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -4528,10 +4530,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>-0.71604643812091306</v>
+        <v>-0.1358562952012668</v>
       </c>
       <c r="B28" s="2">
-        <v>-0.1358562952012668</v>
+        <v>0.71604643812091306</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -4544,10 +4546,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>-0.69743015915920326</v>
+        <v>5.2208737881865419E-2</v>
       </c>
       <c r="B29" s="2">
-        <v>5.2208737881865461E-2</v>
+        <v>0.69743015915920326</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -4560,10 +4562,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>-0.61397613369176507</v>
+        <v>-1.1384603151763911E-3</v>
       </c>
       <c r="B30" s="2">
-        <v>-1.138460315176354E-3</v>
+        <v>0.61397613369176507</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -4576,10 +4578,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>-0.46332682249287049</v>
+        <v>0.12852667275034699</v>
       </c>
       <c r="B31" s="2">
-        <v>0.12852667275034699</v>
+        <v>0.46332682249287049</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -4592,10 +4594,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>-0.64029043683175668</v>
+        <v>2.935138289069731E-2</v>
       </c>
       <c r="B32" s="2">
-        <v>2.9351382890697351E-2</v>
+        <v>0.64029043683175668</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -4608,10 +4610,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>-0.72980961880784823</v>
+        <v>0.17094376698957289</v>
       </c>
       <c r="B33" s="2">
-        <v>0.17094376698957289</v>
+        <v>0.72980961880784823</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -4624,10 +4626,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>-0.37419625165387699</v>
+        <v>0.3679650939272377</v>
       </c>
       <c r="B34" s="2">
-        <v>0.3679650939272377</v>
+        <v>0.37419625165387699</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -4640,10 +4642,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>-0.45557017440657771</v>
+        <v>0.1237839941815445</v>
       </c>
       <c r="B35" s="2">
-        <v>0.1237839941815445</v>
+        <v>0.45557017440657771</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -4656,10 +4658,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>-0.68258628855146952</v>
+        <v>0.103413582643594</v>
       </c>
       <c r="B36" s="2">
-        <v>0.1034135826435941</v>
+        <v>0.68258628855146952</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -4672,10 +4674,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>0.23487709578047439</v>
+        <v>-0.8253146746413953</v>
       </c>
       <c r="B37" s="2">
-        <v>-0.8253146746413953</v>
+        <v>-0.2348770957804745</v>
       </c>
       <c r="C37" s="2">
         <v>0</v>
@@ -4688,10 +4690,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>0.28275912296045952</v>
+        <v>-0.50649553038394823</v>
       </c>
       <c r="B38" s="2">
-        <v>-0.50649553038394823</v>
+        <v>-0.28275912296045952</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
@@ -4704,10 +4706,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>0.38253752964560511</v>
+        <v>-0.82248604297933914</v>
       </c>
       <c r="B39" s="2">
-        <v>-0.82248604297933914</v>
+        <v>-0.38253752964560511</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
@@ -4720,10 +4722,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>0.26411357895456739</v>
+        <v>-0.56538576245679872</v>
       </c>
       <c r="B40" s="2">
-        <v>-0.56538576245679872</v>
+        <v>-0.26411357895456739</v>
       </c>
       <c r="C40" s="2">
         <v>0</v>
@@ -4736,10 +4738,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>0.32962652936524472</v>
+        <v>-0.37886520641878119</v>
       </c>
       <c r="B41" s="2">
-        <v>-0.37886520641878119</v>
+        <v>-0.32962652936524472</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
@@ -4752,10 +4754,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>0.43113064410193142</v>
+        <v>-0.48245757522724009</v>
       </c>
       <c r="B42" s="2">
-        <v>-0.48245757522724009</v>
+        <v>-0.43113064410193153</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
@@ -4768,26 +4770,26 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>0.3643237177278269</v>
+        <v>0.38316680652227841</v>
       </c>
       <c r="B43" s="2">
-        <v>0.38316680652227841</v>
+        <v>-0.3643237177278269</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
       </c>
       <c r="D43" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>0.48646691886346638</v>
+        <v>-0.54175468832705531</v>
       </c>
       <c r="B44" s="2">
-        <v>-0.54175468832705531</v>
+        <v>-0.48646691886346649</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
@@ -4800,10 +4802,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>0.24291699822914969</v>
+        <v>-0.4487765050209786</v>
       </c>
       <c r="B45" s="2">
-        <v>-0.4487765050209786</v>
+        <v>-0.24291699822914981</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -4816,10 +4818,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>0.32034145661265451</v>
+        <v>-0.31140023781134762</v>
       </c>
       <c r="B46" s="2">
-        <v>-0.31140023781134762</v>
+        <v>-0.32034145661265451</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -4832,10 +4834,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>0.51935478948225067</v>
+        <v>-0.65336118763471451</v>
       </c>
       <c r="B47" s="2">
-        <v>-0.65336118763471451</v>
+        <v>-0.51935478948225067</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -4848,10 +4850,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>0.37448182004194552</v>
+        <v>-0.53181015653109109</v>
       </c>
       <c r="B48" s="2">
-        <v>-0.53181015653109109</v>
+        <v>-0.37448182004194558</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -4864,10 +4866,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>0.34980788575668759</v>
+        <v>-0.51797285292128326</v>
       </c>
       <c r="B49" s="2">
-        <v>-0.51797285292128326</v>
+        <v>-0.3498078857566877</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -4880,26 +4882,26 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>0.31995550809866941</v>
+        <v>-0.18346744339201401</v>
       </c>
       <c r="B50" s="2">
-        <v>-0.18346744339201401</v>
+        <v>-0.31995550809866941</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
       </c>
       <c r="D50" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>0.23684561618503219</v>
+        <v>-0.74981465481512677</v>
       </c>
       <c r="B51" s="2">
-        <v>-0.74981465481512677</v>
+        <v>-0.23684561618503219</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -4912,10 +4914,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>0.18498887374451981</v>
+        <v>-0.61544857031754585</v>
       </c>
       <c r="B52" s="2">
-        <v>-0.61544857031754585</v>
+        <v>-0.18498887374451989</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -4928,10 +4930,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>0.22679906815970419</v>
+        <v>-0.46197114449912008</v>
       </c>
       <c r="B53" s="2">
-        <v>-0.46197114449912008</v>
+        <v>-0.22679906815970419</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -4944,10 +4946,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>0.30244136281128853</v>
+        <v>-0.66130452195755329</v>
       </c>
       <c r="B54" s="2">
-        <v>-0.66130452195755329</v>
+        <v>-0.30244136281128858</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -4960,10 +4962,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>0.27257703196934469</v>
+        <v>-0.7963420857676996</v>
       </c>
       <c r="B55" s="2">
-        <v>-0.7963420857676996</v>
+        <v>-0.2725770319693448</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -4976,10 +4978,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>0.28587048641384372</v>
+        <v>-0.72313271541167079</v>
       </c>
       <c r="B56" s="2">
-        <v>-0.72313271541167079</v>
+        <v>-0.28587048641384372</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -4992,10 +4994,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>0.26226642100965908</v>
+        <v>-0.53892191520497534</v>
       </c>
       <c r="B57" s="2">
-        <v>-0.53892191520497534</v>
+        <v>-0.26226642100965908</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -5008,10 +5010,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>0.39852021655754061</v>
+        <v>-0.4577508846091885</v>
       </c>
       <c r="B58" s="2">
-        <v>-0.4577508846091885</v>
+        <v>-0.39852021655754061</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -5024,10 +5026,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>0.29150998362543462</v>
+        <v>-0.45210476661141402</v>
       </c>
       <c r="B59" s="2">
-        <v>-0.45210476661141402</v>
+        <v>-0.29150998362543462</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -5040,10 +5042,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>0.23010580354234161</v>
+        <v>-0.50339737204285129</v>
       </c>
       <c r="B60" s="2">
-        <v>-0.50339737204285129</v>
+        <v>-0.2301058035423417</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -5056,10 +5058,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>0.28727680906299757</v>
+        <v>-0.40289186417334277</v>
       </c>
       <c r="B61" s="2">
-        <v>-0.40289186417334277</v>
+        <v>-0.28727680906299757</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
@@ -5072,10 +5074,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>0.31249786495234111</v>
+        <v>-0.43438090880367408</v>
       </c>
       <c r="B62" s="2">
-        <v>-0.43438090880367408</v>
+        <v>-0.31249786495234111</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -5088,10 +5090,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>0.27849806218860479</v>
+        <v>-0.39308668029777433</v>
       </c>
       <c r="B63" s="2">
-        <v>-0.39308668029777433</v>
+        <v>-0.27849806218860479</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -5104,10 +5106,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>0.26707922914555532</v>
+        <v>-0.65874389414349044</v>
       </c>
       <c r="B64" s="2">
-        <v>-0.65874389414349044</v>
+        <v>-0.26707922914555532</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -5120,10 +5122,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>0.3661441820386882</v>
+        <v>-0.69591718190954366</v>
       </c>
       <c r="B65" s="2">
-        <v>-0.69591718190954366</v>
+        <v>-0.36614418203868832</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -5136,10 +5138,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>0.38588495908123349</v>
+        <v>-0.81466757700236581</v>
       </c>
       <c r="B66" s="2">
-        <v>-0.81466757700236581</v>
+        <v>-0.38588495908123349</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -5152,10 +5154,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>0.39338737930221052</v>
+        <v>-0.59122633272678637</v>
       </c>
       <c r="B67" s="2">
-        <v>-0.59122633272678637</v>
+        <v>-0.39338737930221063</v>
       </c>
       <c r="C67" s="2">
         <v>0</v>
@@ -5168,10 +5170,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>0.26154403388720582</v>
+        <v>-0.61287542961036856</v>
       </c>
       <c r="B68" s="2">
-        <v>-0.61287542961036856</v>
+        <v>-0.26154403388720582</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
@@ -5184,10 +5186,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>0.30141299850394138</v>
+        <v>-0.42373088529622438</v>
       </c>
       <c r="B69" s="2">
-        <v>-0.42373088529622438</v>
+        <v>-0.30141299850394138</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -5200,10 +5202,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>0.19325399867210549</v>
+        <v>-0.64392977730539658</v>
       </c>
       <c r="B70" s="2">
-        <v>-0.64392977730539658</v>
+        <v>-0.19325399867210549</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -5216,10 +5218,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>8.2373061567977704E-2</v>
+        <v>2.5284728295872611E-2</v>
       </c>
       <c r="B71" s="2">
-        <v>2.5284728295872611E-2</v>
+        <v>-8.2373061567977704E-2</v>
       </c>
       <c r="C71" s="2">
         <v>2</v>
@@ -5232,10 +5234,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>0.33449936092657512</v>
+        <v>-2.403658293587439E-3</v>
       </c>
       <c r="B72" s="2">
-        <v>-2.4036582935874598E-3</v>
+        <v>-0.33449936092657512</v>
       </c>
       <c r="C72" s="2">
         <v>2</v>
@@ -5248,10 +5250,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>0.37572260874132518</v>
+        <v>8.6995748015542371E-2</v>
       </c>
       <c r="B73" s="2">
-        <v>8.6995748015542343E-2</v>
+        <v>-0.37572260874132518</v>
       </c>
       <c r="C73" s="2">
         <v>2</v>
@@ -5264,10 +5266,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>0.3566323494369813</v>
+        <v>-5.3117463132203342E-2</v>
       </c>
       <c r="B74" s="2">
-        <v>-5.3117463132203363E-2</v>
+        <v>-0.3566323494369813</v>
       </c>
       <c r="C74" s="2">
         <v>2</v>
@@ -5280,10 +5282,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>0.30995025563060619</v>
+        <v>-8.9524875641218166E-2</v>
       </c>
       <c r="B75" s="2">
-        <v>-8.952487564121818E-2</v>
+        <v>-0.30995025563060619</v>
       </c>
       <c r="C75" s="2">
         <v>2</v>
@@ -5296,10 +5298,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>0.3469894380885869</v>
+        <v>9.0442341722557287E-2</v>
       </c>
       <c r="B76" s="2">
-        <v>9.044234172255726E-2</v>
+        <v>-0.3469894380885869</v>
       </c>
       <c r="C76" s="2">
         <v>2</v>
@@ -5312,10 +5314,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>0.35395830087631558</v>
+        <v>1.338983893865822E-3</v>
       </c>
       <c r="B77" s="2">
-        <v>1.3389838938657999E-3</v>
+        <v>-0.35395830087631558</v>
       </c>
       <c r="C77" s="2">
         <v>2</v>
@@ -5328,10 +5330,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>0.37836395839722098</v>
+        <v>9.2433340954131415E-3</v>
       </c>
       <c r="B78" s="2">
-        <v>9.243334095413119E-3</v>
+        <v>-0.37836395839722098</v>
       </c>
       <c r="C78" s="2">
         <v>2</v>
@@ -5344,10 +5346,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>0.1953044271434852</v>
+        <v>-7.9733631415470463E-2</v>
       </c>
       <c r="B79" s="2">
-        <v>-7.9733631415470477E-2</v>
+        <v>-0.1953044271434852</v>
       </c>
       <c r="C79" s="2">
         <v>2</v>
@@ -5360,10 +5362,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>0.38829597888117501</v>
+        <v>0.30221321920771488</v>
       </c>
       <c r="B80" s="2">
-        <v>0.30221321920771488</v>
+        <v>-0.38829597888117501</v>
       </c>
       <c r="C80" s="2">
         <v>2</v>
@@ -5376,10 +5378,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>0.33091200969803791</v>
+        <v>3.912510430040634E-2</v>
       </c>
       <c r="B81" s="2">
-        <v>3.9125104300406319E-2</v>
+        <v>-0.33091200969803791</v>
       </c>
       <c r="C81" s="2">
         <v>2</v>
@@ -5392,10 +5394,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>0.2882614474929166</v>
+        <v>-2.7702194604683719E-2</v>
       </c>
       <c r="B82" s="2">
-        <v>-2.770219460468374E-2</v>
+        <v>-0.2882614474929166</v>
       </c>
       <c r="C82" s="2">
         <v>2</v>
@@ -5408,10 +5410,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>0.36460659906063958</v>
+        <v>-7.1165080497382474E-2</v>
       </c>
       <c r="B83" s="2">
-        <v>-7.1165080497382502E-2</v>
+        <v>-0.36460659906063958</v>
       </c>
       <c r="C83" s="2">
         <v>2</v>
@@ -5424,10 +5426,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>0.38067511834992429</v>
+        <v>0.1184251120331114</v>
       </c>
       <c r="B84" s="2">
-        <v>0.1184251120331114</v>
+        <v>-0.38067511834992429</v>
       </c>
       <c r="C84" s="2">
         <v>2</v>
@@ -5440,10 +5442,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>0.38060149233906099</v>
+        <v>6.1305288346640563E-2</v>
       </c>
       <c r="B85" s="2">
-        <v>6.1305288346640542E-2</v>
+        <v>-0.38060149233906099</v>
       </c>
       <c r="C85" s="2">
         <v>2</v>
@@ -5456,10 +5458,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>0.36327500612555391</v>
+        <v>-9.8572120073406634E-3</v>
       </c>
       <c r="B86" s="2">
-        <v>-9.857212007340686E-3</v>
+        <v>-0.36327500612555391</v>
       </c>
       <c r="C86" s="2">
         <v>2</v>
@@ -5472,10 +5474,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>0.31717499287226331</v>
+        <v>-4.1730557434223457E-2</v>
       </c>
       <c r="B87" s="2">
-        <v>-4.1730557434223478E-2</v>
+        <v>-0.31717499287226331</v>
       </c>
       <c r="C87" s="2">
         <v>2</v>
@@ -5488,10 +5490,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>0.28509054168031051</v>
+        <v>-2.4277622145186389E-3</v>
       </c>
       <c r="B88" s="2">
-        <v>-2.4277622145186572E-3</v>
+        <v>-0.28509054168031051</v>
       </c>
       <c r="C88" s="2">
         <v>2</v>
@@ -5504,10 +5506,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>0.32611451712258771</v>
+        <v>-4.3009865055516641E-2</v>
       </c>
       <c r="B89" s="2">
-        <v>-4.3009865055516662E-2</v>
+        <v>-0.32611451712258771</v>
       </c>
       <c r="C89" s="2">
         <v>2</v>
@@ -5520,10 +5522,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>0.32764099318119128</v>
+        <v>-0.16207411073689651</v>
       </c>
       <c r="B90" s="2">
-        <v>-0.16207411073689651</v>
+        <v>-0.32764099318119128</v>
       </c>
       <c r="C90" s="2">
         <v>2</v>
@@ -5536,10 +5538,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>0.35973320695492972</v>
+        <v>-9.4866455082806469E-3</v>
       </c>
       <c r="B91" s="2">
-        <v>-9.4866455082806694E-3</v>
+        <v>-0.35973320695492972</v>
       </c>
       <c r="C91" s="2">
         <v>2</v>
@@ -5552,10 +5554,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>0.32715329058014331</v>
+        <v>5.7860585290751991E-2</v>
       </c>
       <c r="B92" s="2">
-        <v>5.786058529075197E-2</v>
+        <v>-0.32715329058014331</v>
       </c>
       <c r="C92" s="2">
         <v>2</v>
@@ -5568,10 +5570,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>0.33419089831180432</v>
+        <v>-0.1086576460724088</v>
       </c>
       <c r="B93" s="2">
-        <v>-0.1086576460724088</v>
+        <v>-0.33419089831180432</v>
       </c>
       <c r="C93" s="2">
         <v>2</v>
@@ -5584,10 +5586,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>0.34961279196251471</v>
+        <v>-0.1972579243371467</v>
       </c>
       <c r="B94" s="2">
-        <v>-0.1972579243371467</v>
+        <v>-0.34961279196251471</v>
       </c>
       <c r="C94" s="2">
         <v>2</v>
@@ -5600,10 +5602,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>0.23945638730564101</v>
+        <v>-4.0761242425912531E-2</v>
       </c>
       <c r="B95" s="2">
-        <v>-4.0761242425912537E-2</v>
+        <v>-0.23945638730564101</v>
       </c>
       <c r="C95" s="2">
         <v>2</v>
@@ -5616,10 +5618,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>0.33574477229005378</v>
+        <v>4.4723120564472238E-2</v>
       </c>
       <c r="B96" s="2">
-        <v>4.4723120564472217E-2</v>
+        <v>-0.33574477229005378</v>
       </c>
       <c r="C96" s="2">
         <v>2</v>
@@ -5632,10 +5634,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>0.32580125974903817</v>
+        <v>4.4766435923203229E-2</v>
       </c>
       <c r="B97" s="2">
-        <v>4.4766435923203209E-2</v>
+        <v>-0.32580125974903817</v>
       </c>
       <c r="C97" s="2">
         <v>2</v>
@@ -5648,10 +5650,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>0.41931412885712349</v>
+        <v>8.8802421816498292E-2</v>
       </c>
       <c r="B98" s="2">
-        <v>8.8802421816498264E-2</v>
+        <v>-0.41931412885712349</v>
       </c>
       <c r="C98" s="2">
         <v>2</v>
@@ -5664,10 +5666,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>0.48080286754746099</v>
+        <v>0.12100335182431431</v>
       </c>
       <c r="B99" s="2">
-        <v>0.12100335182431431</v>
+        <v>-0.48080286754746099</v>
       </c>
       <c r="C99" s="2">
         <v>2</v>
@@ -5680,10 +5682,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>0.33948798092976562</v>
+        <v>1.5692036173429361E-2</v>
       </c>
       <c r="B100" s="2">
-        <v>1.569203617342934E-2</v>
+        <v>-0.33948798092976562</v>
       </c>
       <c r="C100" s="2">
         <v>2</v>
@@ -5696,10 +5698,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>0.34501822968803658</v>
+        <v>1.154702264188104E-2</v>
       </c>
       <c r="B101" s="2">
-        <v>1.1547022641881019E-2</v>
+        <v>-0.34501822968803658</v>
       </c>
       <c r="C101" s="2">
         <v>2</v>
@@ -5712,10 +5714,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>0.43080642352315102</v>
+        <v>-7.012400999869961E-2</v>
       </c>
       <c r="B102" s="2">
-        <v>-7.0124009998699638E-2</v>
+        <v>-0.43080642352315102</v>
       </c>
       <c r="C102" s="2">
         <v>2</v>
@@ -5728,10 +5730,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>0.41714937593023571</v>
+        <v>6.7976604167241481E-2</v>
       </c>
       <c r="B103" s="2">
-        <v>6.7976604167241453E-2</v>
+        <v>-0.41714937593023571</v>
       </c>
       <c r="C103" s="2">
         <v>2</v>
@@ -5744,10 +5746,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>0.43564302068170419</v>
+        <v>0.17614938760463389</v>
       </c>
       <c r="B104" s="2">
-        <v>0.17614938760463381</v>
+        <v>-0.43564302068170419</v>
       </c>
       <c r="C104" s="2">
         <v>2</v>
@@ -5760,10 +5762,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>0.42919943055957749</v>
+        <v>0.18347487354263581</v>
       </c>
       <c r="B105" s="2">
-        <v>0.18347487354263581</v>
+        <v>-0.42919943055957749</v>
       </c>
       <c r="C105" s="2">
         <v>2</v>
@@ -5776,10 +5778,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>5.6292367990366431E-2</v>
+        <v>0.20926756266327201</v>
       </c>
       <c r="B106" s="2">
-        <v>0.20926756266327201</v>
+        <v>-5.6292367990366417E-2</v>
       </c>
       <c r="C106" s="2">
         <v>3</v>
@@ -5792,10 +5794,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>0.38400130361687879</v>
+        <v>0.28896875342438288</v>
       </c>
       <c r="B107" s="2">
-        <v>0.28896875342438288</v>
+        <v>-0.38400130361687879</v>
       </c>
       <c r="C107" s="2">
         <v>3</v>
@@ -5808,10 +5810,10 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>-0.29503157004523473</v>
+        <v>0.52302516909758379</v>
       </c>
       <c r="B108" s="2">
-        <v>0.52302516909758379</v>
+        <v>0.29503157004523478</v>
       </c>
       <c r="C108" s="2">
         <v>3</v>
@@ -5824,10 +5826,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>5.9991407738360328E-2</v>
+        <v>0.26966860659138198</v>
       </c>
       <c r="B109" s="2">
-        <v>0.26966860659138198</v>
+        <v>-5.9991407738360321E-2</v>
       </c>
       <c r="C109" s="2">
         <v>3</v>
@@ -5840,10 +5842,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>3.20198955039157E-2</v>
+        <v>0.30966815653649987</v>
       </c>
       <c r="B110" s="2">
-        <v>0.30966815653649987</v>
+        <v>-3.201989550391568E-2</v>
       </c>
       <c r="C110" s="2">
         <v>3</v>
@@ -5856,10 +5858,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>0.1035002338665756</v>
+        <v>0.2304729912899364</v>
       </c>
       <c r="B111" s="2">
-        <v>0.2304729912899364</v>
+        <v>-0.1035002338665755</v>
       </c>
       <c r="C111" s="2">
         <v>3</v>
@@ -5872,10 +5874,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>0.101870406639885</v>
+        <v>0.24010279720599431</v>
       </c>
       <c r="B112" s="2">
-        <v>0.24010279720599431</v>
+        <v>-0.101870406639885</v>
       </c>
       <c r="C112" s="2">
         <v>3</v>
@@ -5888,10 +5890,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>6.1044109302985317E-2</v>
+        <v>0.32012282772036088</v>
       </c>
       <c r="B113" s="2">
-        <v>0.32012282772036088</v>
+        <v>-6.1044109302985303E-2</v>
       </c>
       <c r="C113" s="2">
         <v>3</v>
@@ -5904,10 +5906,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>0.21470848758557981</v>
+        <v>0.38764569577196639</v>
       </c>
       <c r="B114" s="2">
-        <v>0.38764569577196639</v>
+        <v>-0.21470848758557981</v>
       </c>
       <c r="C114" s="2">
         <v>3</v>
@@ -5920,10 +5922,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>0.18205211460936421</v>
+        <v>0.30098083762235672</v>
       </c>
       <c r="B115" s="2">
-        <v>0.30098083762235672</v>
+        <v>-0.18205211460936421</v>
       </c>
       <c r="C115" s="2">
         <v>3</v>
@@ -5936,10 +5938,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>0.1107326634724605</v>
+        <v>0.33041944926138389</v>
       </c>
       <c r="B116" s="2">
-        <v>0.33041944926138389</v>
+        <v>-0.1107326634724605</v>
       </c>
       <c r="C116" s="2">
         <v>3</v>
@@ -5952,10 +5954,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>0.1358309159379176</v>
+        <v>0.3356212584232619</v>
       </c>
       <c r="B117" s="2">
-        <v>0.3356212584232619</v>
+        <v>-0.1358309159379176</v>
       </c>
       <c r="C117" s="2">
         <v>3</v>
@@ -5968,10 +5970,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>0.1011897796783192</v>
+        <v>0.27724271996222027</v>
       </c>
       <c r="B118" s="2">
-        <v>0.27724271996222027</v>
+        <v>-0.1011897796783192</v>
       </c>
       <c r="C118" s="2">
         <v>3</v>
@@ -5984,10 +5986,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>8.8599830014732761E-2</v>
+        <v>0.34003777670045632</v>
       </c>
       <c r="B119" s="2">
-        <v>0.34003777670045632</v>
+        <v>-8.8599830014732733E-2</v>
       </c>
       <c r="C119" s="2">
         <v>3</v>
@@ -6000,10 +6002,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>8.0031693834104967E-2</v>
+        <v>0.392170881141086</v>
       </c>
       <c r="B120" s="2">
-        <v>0.392170881141086</v>
+        <v>-8.0031693834104939E-2</v>
       </c>
       <c r="C120" s="2">
         <v>3</v>
@@ -6016,10 +6018,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>0.16128884401676161</v>
+        <v>0.3589197435537827</v>
       </c>
       <c r="B121" s="2">
-        <v>0.3589197435537827</v>
+        <v>-0.16128884401676161</v>
       </c>
       <c r="C121" s="2">
         <v>3</v>
@@ -6032,10 +6034,10 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>0.21729653399215351</v>
+        <v>0.3438922868400146</v>
       </c>
       <c r="B122" s="2">
-        <v>0.3438922868400146</v>
+        <v>-0.21729653399215351</v>
       </c>
       <c r="C122" s="2">
         <v>3</v>
@@ -6048,10 +6050,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
-        <v>0.23751055117268749</v>
+        <v>0.3652119150547487</v>
       </c>
       <c r="B123" s="2">
-        <v>0.3652119150547487</v>
+        <v>-0.23751055117268749</v>
       </c>
       <c r="C123" s="2">
         <v>3</v>
@@ -6064,10 +6066,10 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
-        <v>0.23447469485783179</v>
+        <v>0.3823224389500034</v>
       </c>
       <c r="B124" s="2">
-        <v>0.3823224389500034</v>
+        <v>-0.23447469485783171</v>
       </c>
       <c r="C124" s="2">
         <v>3</v>
@@ -6080,10 +6082,10 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>0.2298654699926076</v>
+        <v>0.2512267493787752</v>
       </c>
       <c r="B125" s="2">
-        <v>0.2512267493787752</v>
+        <v>-0.2298654699926076</v>
       </c>
       <c r="C125" s="2">
         <v>3</v>
@@ -6096,10 +6098,10 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>0.24173880165216141</v>
+        <v>0.2332665093627628</v>
       </c>
       <c r="B126" s="2">
-        <v>0.2332665093627628</v>
+        <v>-0.24173880165216141</v>
       </c>
       <c r="C126" s="2">
         <v>3</v>
@@ -6112,10 +6114,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>0.16768317416133591</v>
+        <v>0.34102574685415171</v>
       </c>
       <c r="B127" s="2">
-        <v>0.34102574685415171</v>
+        <v>-0.16768317416133591</v>
       </c>
       <c r="C127" s="2">
         <v>3</v>
@@ -6128,10 +6130,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>0.23088030728260869</v>
+        <v>0.32488413609400302</v>
       </c>
       <c r="B128" s="2">
-        <v>0.32488413609400302</v>
+        <v>-0.23088030728260869</v>
       </c>
       <c r="C128" s="2">
         <v>3</v>
@@ -6144,10 +6146,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>0.24124380975050419</v>
+        <v>0.38869132666369449</v>
       </c>
       <c r="B129" s="2">
-        <v>0.38869132666369449</v>
+        <v>-0.24124380975050411</v>
       </c>
       <c r="C129" s="2">
         <v>3</v>
@@ -6160,10 +6162,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>0.19590082480190149</v>
+        <v>0.2635457251758383</v>
       </c>
       <c r="B130" s="2">
-        <v>0.2635457251758383</v>
+        <v>-0.19590082480190149</v>
       </c>
       <c r="C130" s="2">
         <v>3</v>
@@ -6176,10 +6178,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>0.23400428850084659</v>
+        <v>0.35088816638255682</v>
       </c>
       <c r="B131" s="2">
-        <v>0.35088816638255682</v>
+        <v>-0.23400428850084659</v>
       </c>
       <c r="C131" s="2">
         <v>3</v>
@@ -6192,10 +6194,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
-        <v>0.21064767973845161</v>
+        <v>0.26447366094407798</v>
       </c>
       <c r="B132" s="2">
-        <v>0.26447366094407798</v>
+        <v>-0.21064767973845161</v>
       </c>
       <c r="C132" s="2">
         <v>3</v>
@@ -6208,10 +6210,10 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
-        <v>0.23698141291041211</v>
+        <v>0.2431020518784289</v>
       </c>
       <c r="B133" s="2">
-        <v>0.2431020518784289</v>
+        <v>-0.236981412910412</v>
       </c>
       <c r="C133" s="2">
         <v>3</v>
@@ -6224,10 +6226,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>0.2483742922281777</v>
+        <v>0.37429665184687461</v>
       </c>
       <c r="B134" s="2">
-        <v>0.37429665184687461</v>
+        <v>-0.24837429222817761</v>
       </c>
       <c r="C134" s="2">
         <v>3</v>
@@ -6240,10 +6242,10 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>0.1694432691600945</v>
+        <v>0.36687655246701878</v>
       </c>
       <c r="B135" s="2">
-        <v>0.36687655246701878</v>
+        <v>-0.16944326916009439</v>
       </c>
       <c r="C135" s="2">
         <v>3</v>
@@ -6256,10 +6258,10 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>0.1687782399154602</v>
+        <v>0.31802654739818081</v>
       </c>
       <c r="B136" s="2">
-        <v>0.31802654739818081</v>
+        <v>-0.1687782399154602</v>
       </c>
       <c r="C136" s="2">
         <v>3</v>
@@ -6272,10 +6274,10 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>0.16978552926983381</v>
+        <v>0.35231002902386321</v>
       </c>
       <c r="B137" s="2">
-        <v>0.35231002902386321</v>
+        <v>-0.16978552926983381</v>
       </c>
       <c r="C137" s="2">
         <v>3</v>
@@ -6288,10 +6290,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>0.18225542421455421</v>
+        <v>0.38225634804937447</v>
       </c>
       <c r="B138" s="2">
-        <v>0.38225634804937447</v>
+        <v>-0.1822554242145541</v>
       </c>
       <c r="C138" s="2">
         <v>3</v>
@@ -6304,10 +6306,10 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>0.22038502319587691</v>
+        <v>0.36156676552333139</v>
       </c>
       <c r="B139" s="2">
-        <v>0.36156676552333139</v>
+        <v>-0.2203850231958768</v>
       </c>
       <c r="C139" s="2">
         <v>3</v>
@@ -6320,10 +6322,10 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>0.15442609252766759</v>
+        <v>0.37742188249117559</v>
       </c>
       <c r="B140" s="2">
-        <v>0.37742188249117559</v>
+        <v>-0.15442609252766751</v>
       </c>
       <c r="C140" s="2">
         <v>3</v>
@@ -6336,10 +6338,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
-        <v>-2.7090918259286261E-2</v>
+        <v>-0.5420742759036995</v>
       </c>
       <c r="B141" s="2">
-        <v>-0.5420742759036995</v>
+        <v>2.709091825928623E-2</v>
       </c>
       <c r="C141" s="2">
         <v>5</v>
@@ -6352,10 +6354,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
-        <v>-0.1096791064513253</v>
+        <v>-0.21219710254202909</v>
       </c>
       <c r="B142" s="2">
-        <v>-0.21219710254202909</v>
+        <v>0.1096791064513252</v>
       </c>
       <c r="C142" s="2">
         <v>5</v>
@@ -6368,10 +6370,10 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
-        <v>-0.26660990704160331</v>
+        <v>-0.40478815040542199</v>
       </c>
       <c r="B143" s="2">
-        <v>-0.40478815040542199</v>
+        <v>0.26660990704160331</v>
       </c>
       <c r="C143" s="2">
         <v>5</v>
@@ -6384,10 +6386,10 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
-        <v>-0.1196607301996557</v>
+        <v>2.1648920813400661E-2</v>
       </c>
       <c r="B144" s="2">
-        <v>2.1648920813400668E-2</v>
+        <v>0.1196607301996557</v>
       </c>
       <c r="C144" s="2">
         <v>5</v>
@@ -6400,10 +6402,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
-        <v>-0.28335512595113183</v>
+        <v>-0.35625673695278282</v>
       </c>
       <c r="B145" s="2">
-        <v>-0.35625673695278282</v>
+        <v>0.28335512595113183</v>
       </c>
       <c r="C145" s="2">
         <v>5</v>
@@ -6416,10 +6418,10 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
-        <v>-0.23275442889433021</v>
+        <v>-0.38338361301388107</v>
       </c>
       <c r="B146" s="2">
-        <v>-0.38338361301388107</v>
+        <v>0.2327544288943301</v>
       </c>
       <c r="C146" s="2">
         <v>5</v>
@@ -6432,10 +6434,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
-        <v>-0.41929844984184961</v>
+        <v>-0.45952999145501178</v>
       </c>
       <c r="B147" s="2">
-        <v>-0.45952999145501178</v>
+        <v>0.41929844984184961</v>
       </c>
       <c r="C147" s="2">
         <v>5</v>
@@ -6448,10 +6450,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>-0.139410746746503</v>
+        <v>-0.26575533474469681</v>
       </c>
       <c r="B148" s="2">
-        <v>-0.26575533474469681</v>
+        <v>0.139410746746503</v>
       </c>
       <c r="C148" s="2">
         <v>5</v>
@@ -6464,10 +6466,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
-        <v>-0.30322848456385809</v>
+        <v>-0.57936517588063086</v>
       </c>
       <c r="B149" s="2">
-        <v>-0.57936517588063086</v>
+        <v>0.30322848456385798</v>
       </c>
       <c r="C149" s="2">
         <v>5</v>
@@ -6480,10 +6482,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>-0.16027057392247909</v>
+        <v>-0.33250194168341551</v>
       </c>
       <c r="B150" s="2">
-        <v>-0.33250194168341551</v>
+        <v>0.16027057392247901</v>
       </c>
       <c r="C150" s="2">
         <v>5</v>
@@ -6496,10 +6498,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>-0.39108285458034853</v>
+        <v>-0.38129104014355081</v>
       </c>
       <c r="B151" s="2">
-        <v>-0.38129104014355081</v>
+        <v>0.39108285458034853</v>
       </c>
       <c r="C151" s="2">
         <v>5</v>
@@ -6512,10 +6514,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>-0.2053204734283304</v>
+        <v>-0.40824897637426999</v>
       </c>
       <c r="B152" s="2">
-        <v>-0.40824897637426999</v>
+        <v>0.2053204734283304</v>
       </c>
       <c r="C152" s="2">
         <v>5</v>
@@ -6528,10 +6530,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
-        <v>-0.40283829128851661</v>
+        <v>-0.46070438053548218</v>
       </c>
       <c r="B153" s="2">
-        <v>-0.46070438053548218</v>
+        <v>0.4028382912885165</v>
       </c>
       <c r="C153" s="2">
         <v>5</v>
@@ -6544,10 +6546,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
-        <v>-0.34828059179946491</v>
+        <v>-0.38956534994346581</v>
       </c>
       <c r="B154" s="2">
-        <v>-0.38956534994346581</v>
+        <v>0.34828059179946491</v>
       </c>
       <c r="C154" s="2">
         <v>5</v>
@@ -6560,10 +6562,10 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
-        <v>-0.35939539999567172</v>
+        <v>-0.42488092119864629</v>
       </c>
       <c r="B155" s="2">
-        <v>-0.42488092119864629</v>
+        <v>0.35939539999567172</v>
       </c>
       <c r="C155" s="2">
         <v>5</v>
@@ -6576,10 +6578,10 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
-        <v>-0.33971335138526898</v>
+        <v>-0.43824956537198589</v>
       </c>
       <c r="B156" s="2">
-        <v>-0.43824956537198589</v>
+        <v>0.33971335138526898</v>
       </c>
       <c r="C156" s="2">
         <v>5</v>
@@ -6592,10 +6594,10 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
-        <v>-0.39872489023348451</v>
+        <v>-0.39042996761245091</v>
       </c>
       <c r="B157" s="2">
-        <v>-0.39042996761245091</v>
+        <v>0.39872489023348451</v>
       </c>
       <c r="C157" s="2">
         <v>5</v>
@@ -6608,10 +6610,10 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
-        <v>-0.25433728794968269</v>
+        <v>-0.3543992401125266</v>
       </c>
       <c r="B158" s="2">
-        <v>-0.3543992401125266</v>
+        <v>0.25433728794968269</v>
       </c>
       <c r="C158" s="2">
         <v>5</v>
@@ -6624,10 +6626,10 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
-        <v>-0.31379495058763041</v>
+        <v>-0.38738146146245739</v>
       </c>
       <c r="B159" s="2">
-        <v>-0.38738146146245739</v>
+        <v>0.31379495058763041</v>
       </c>
       <c r="C159" s="2">
         <v>5</v>
@@ -6640,10 +6642,10 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
-        <v>-0.28008853334483991</v>
+        <v>-0.38856558533811741</v>
       </c>
       <c r="B160" s="2">
-        <v>-0.38856558533811741</v>
+        <v>0.28008853334483991</v>
       </c>
       <c r="C160" s="2">
         <v>5</v>
@@ -6656,10 +6658,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
-        <v>-0.28877372500127019</v>
+        <v>-0.41838442125132158</v>
       </c>
       <c r="B161" s="2">
-        <v>-0.41838442125132158</v>
+        <v>0.28877372500127019</v>
       </c>
       <c r="C161" s="2">
         <v>5</v>
@@ -6672,10 +6674,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
-        <v>-0.41236959715100108</v>
+        <v>-0.4361367347509898</v>
       </c>
       <c r="B162" s="2">
-        <v>-0.4361367347509898</v>
+        <v>0.41236959715100108</v>
       </c>
       <c r="C162" s="2">
         <v>5</v>
@@ -6688,10 +6690,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>-0.12650723893745619</v>
+        <v>-0.19552216559081009</v>
       </c>
       <c r="B163" s="2">
-        <v>-0.19552216559081009</v>
+        <v>0.12650723893745619</v>
       </c>
       <c r="C163" s="2">
         <v>5</v>
@@ -6704,10 +6706,10 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>-0.21366647003066011</v>
+        <v>-0.44241237689086632</v>
       </c>
       <c r="B164" s="2">
-        <v>-0.44241237689086632</v>
+        <v>0.21366647003066</v>
       </c>
       <c r="C164" s="2">
         <v>5</v>
@@ -6720,26 +6722,26 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
-        <v>-0.12902661761830889</v>
+        <v>0.1330614676980626</v>
       </c>
       <c r="B165" s="2">
-        <v>0.1330614676980626</v>
+        <v>0.12902661761830889</v>
       </c>
       <c r="C165" s="2">
         <v>5</v>
       </c>
       <c r="D165" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
-        <v>-0.1503009077205581</v>
+        <v>-0.3284370125621659</v>
       </c>
       <c r="B166" s="2">
-        <v>-0.3284370125621659</v>
+        <v>0.15030090772055801</v>
       </c>
       <c r="C166" s="2">
         <v>5</v>
@@ -6752,10 +6754,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>-0.14412149690959891</v>
+        <v>-0.31882641596087158</v>
       </c>
       <c r="B167" s="2">
-        <v>-0.31882641596087158</v>
+        <v>0.14412149690959891</v>
       </c>
       <c r="C167" s="2">
         <v>5</v>
@@ -6768,10 +6770,10 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>-0.14799568431572979</v>
+        <v>-0.27451617433906272</v>
       </c>
       <c r="B168" s="2">
-        <v>-0.27451617433906272</v>
+        <v>0.14799568431572971</v>
       </c>
       <c r="C168" s="2">
         <v>5</v>
@@ -6784,10 +6786,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>-7.7018653279374641E-2</v>
+        <v>0.18307170277278431</v>
       </c>
       <c r="B169" s="2">
-        <v>0.18307170277278431</v>
+        <v>7.7018653279374655E-2</v>
       </c>
       <c r="C169" s="2">
         <v>5</v>
@@ -6800,10 +6802,10 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>-0.17430845083300839</v>
+        <v>-0.26231632051361742</v>
       </c>
       <c r="B170" s="2">
-        <v>-0.26231632051361742</v>
+        <v>0.17430845083300839</v>
       </c>
       <c r="C170" s="2">
         <v>5</v>
@@ -6816,10 +6818,10 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>0.39668475037068412</v>
+        <v>0.32642182209724319</v>
       </c>
       <c r="B171" s="2">
-        <v>0.32642182209724319</v>
+        <v>-0.39668475037068412</v>
       </c>
       <c r="C171" s="2">
         <v>5</v>
@@ -6832,26 +6834,26 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>0.17712531865063641</v>
+        <v>0.15342432423305491</v>
       </c>
       <c r="B172" s="2">
-        <v>0.15342432423305491</v>
+        <v>-0.17712531865063641</v>
       </c>
       <c r="C172" s="2">
         <v>4</v>
       </c>
       <c r="D172" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>-0.49909823998006059</v>
+        <v>-0.29641242000597318</v>
       </c>
       <c r="B173" s="2">
-        <v>-0.29641242000597318</v>
+        <v>0.49909823998006059</v>
       </c>
       <c r="C173" s="2">
         <v>4</v>
@@ -6864,10 +6866,10 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>-0.33462932600233941</v>
+        <v>0.78167883450346876</v>
       </c>
       <c r="B174" s="2">
-        <v>0.78167883450346876</v>
+        <v>0.33462932600233941</v>
       </c>
       <c r="C174" s="2">
         <v>4</v>
@@ -6880,10 +6882,10 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>-5.7310665440998762E-2</v>
+        <v>1.6117978782428939E-2</v>
       </c>
       <c r="B175" s="2">
-        <v>1.6117978782428939E-2</v>
+        <v>5.7310665440998762E-2</v>
       </c>
       <c r="C175" s="2">
         <v>4</v>
@@ -6896,10 +6898,10 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
-        <v>-0.2234309872817668</v>
+        <v>0.64393011769033759</v>
       </c>
       <c r="B176" s="2">
-        <v>0.64393011769033759</v>
+        <v>0.22343098728176691</v>
       </c>
       <c r="C176" s="2">
         <v>4</v>
@@ -6912,10 +6914,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>-0.26860661408389119</v>
+        <v>-3.9276420109973431E-3</v>
       </c>
       <c r="B177" s="2">
-        <v>-3.9276420109973266E-3</v>
+        <v>0.26860661408389119</v>
       </c>
       <c r="C177" s="2">
         <v>4</v>
@@ -6928,10 +6930,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>-0.33466817987521669</v>
+        <v>0.57044287254238712</v>
       </c>
       <c r="B178" s="2">
-        <v>0.57044287254238712</v>
+        <v>0.3346681798752168</v>
       </c>
       <c r="C178" s="2">
         <v>4</v>
@@ -6944,10 +6946,10 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>-0.25064405577401527</v>
+        <v>-2.1796832510101911E-2</v>
       </c>
       <c r="B179" s="2">
-        <v>-2.17968325101019E-2</v>
+        <v>0.25064405577401527</v>
       </c>
       <c r="C179" s="2">
         <v>4</v>
@@ -6960,10 +6962,10 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>-0.1067346295188759</v>
+        <v>0.39577993549501927</v>
       </c>
       <c r="B180" s="2">
-        <v>0.39577993549501927</v>
+        <v>0.106734629518876</v>
       </c>
       <c r="C180" s="2">
         <v>4</v>
@@ -6976,10 +6978,10 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>-0.2716537647608474</v>
+        <v>0.47668611148689932</v>
       </c>
       <c r="B181" s="2">
-        <v>0.47668611148689932</v>
+        <v>0.27165376476084752</v>
       </c>
       <c r="C181" s="2">
         <v>4</v>
@@ -6992,10 +6994,10 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>-0.2212395566579109</v>
+        <v>0.50219989029252143</v>
       </c>
       <c r="B182" s="2">
-        <v>0.50219989029252143</v>
+        <v>0.2212395566579109</v>
       </c>
       <c r="C182" s="2">
         <v>4</v>
@@ -7008,10 +7010,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>-6.9613897637081104E-2</v>
+        <v>0.53899567476144317</v>
       </c>
       <c r="B183" s="2">
-        <v>0.53899567476144317</v>
+        <v>6.9613897637081132E-2</v>
       </c>
       <c r="C183" s="2">
         <v>4</v>
@@ -7024,10 +7026,10 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>0.37472449099312882</v>
+        <v>0.3421275819060593</v>
       </c>
       <c r="B184" s="2">
-        <v>0.3421275819060593</v>
+        <v>-0.37472449099312882</v>
       </c>
       <c r="C184" s="2">
         <v>4</v>
@@ -7040,10 +7042,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>-0.32450586825439859</v>
+        <v>0.44034918718894589</v>
       </c>
       <c r="B185" s="2">
-        <v>0.44034918718894589</v>
+        <v>0.32450586825439859</v>
       </c>
       <c r="C185" s="2">
         <v>4</v>
@@ -7056,10 +7058,10 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>-0.14860651108413539</v>
+        <v>0.39126403933527482</v>
       </c>
       <c r="B186" s="2">
-        <v>0.39126403933527482</v>
+        <v>0.14860651108413539</v>
       </c>
       <c r="C186" s="2">
         <v>4</v>
@@ -7072,10 +7074,10 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>-0.11925251623126421</v>
+        <v>0.45839122245471497</v>
       </c>
       <c r="B187" s="2">
-        <v>0.45839122245471497</v>
+        <v>0.11925251623126421</v>
       </c>
       <c r="C187" s="2">
         <v>4</v>
@@ -7088,10 +7090,10 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>-0.1031672377376176</v>
+        <v>0.29594480128647038</v>
       </c>
       <c r="B188" s="2">
-        <v>0.29594480128647038</v>
+        <v>0.1031672377376176</v>
       </c>
       <c r="C188" s="2">
         <v>4</v>
@@ -7104,10 +7106,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>-0.2299009984383589</v>
+        <v>0.4200428050571352</v>
       </c>
       <c r="B189" s="2">
-        <v>0.4200428050571352</v>
+        <v>0.22990099843835901</v>
       </c>
       <c r="C189" s="2">
         <v>4</v>
@@ -7120,10 +7122,10 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>0.37781971342409321</v>
+        <v>0.26876060341210278</v>
       </c>
       <c r="B190" s="2">
-        <v>0.26876060341210278</v>
+        <v>-0.37781971342409321</v>
       </c>
       <c r="C190" s="2">
         <v>4</v>
@@ -7136,10 +7138,10 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>-0.1537158344170583</v>
+        <v>0.45448255889782962</v>
       </c>
       <c r="B191" s="2">
-        <v>0.45448255889782962</v>
+        <v>0.15371583441705841</v>
       </c>
       <c r="C191" s="2">
         <v>4</v>
@@ -7152,10 +7154,10 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>0.34653640391371648</v>
+        <v>0.28463748326599581</v>
       </c>
       <c r="B192" s="2">
-        <v>0.28463748326599581</v>
+        <v>-0.34653640391371648</v>
       </c>
       <c r="C192" s="2">
         <v>4</v>
@@ -7168,10 +7170,10 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>-0.11881515678196281</v>
+        <v>0.26786525327807992</v>
       </c>
       <c r="B193" s="2">
-        <v>0.26786525327807992</v>
+        <v>0.11881515678196281</v>
       </c>
       <c r="C193" s="2">
         <v>4</v>
@@ -7184,10 +7186,10 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>-4.0968192436839556E-3</v>
+        <v>0.34587240192088242</v>
       </c>
       <c r="B194" s="2">
-        <v>0.34587240192088242</v>
+        <v>4.0968192436839756E-3</v>
       </c>
       <c r="C194" s="2">
         <v>4</v>
@@ -7200,10 +7202,10 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>-0.17397320686788029</v>
+        <v>0.198351296632437</v>
       </c>
       <c r="B195" s="2">
-        <v>0.198351296632437</v>
+        <v>0.17397320686788029</v>
       </c>
       <c r="C195" s="2">
         <v>4</v>
@@ -7216,10 +7218,10 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>-9.1215662011001328E-2</v>
+        <v>0.35896940356267032</v>
       </c>
       <c r="B196" s="2">
-        <v>0.35896940356267032</v>
+        <v>9.1215662011001356E-2</v>
       </c>
       <c r="C196" s="2">
         <v>4</v>
@@ -7232,10 +7234,10 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>-5.8563332631108543E-2</v>
+        <v>0.304528235920213</v>
       </c>
       <c r="B197" s="2">
-        <v>0.304528235920213</v>
+        <v>5.8563332631108557E-2</v>
       </c>
       <c r="C197" s="2">
         <v>4</v>
@@ -7248,10 +7250,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>-5.2779636360976309E-2</v>
+        <v>0.5491954213889354</v>
       </c>
       <c r="B198" s="2">
-        <v>0.5491954213889354</v>
+        <v>5.2779636360976337E-2</v>
       </c>
       <c r="C198" s="2">
         <v>4</v>
@@ -7264,10 +7266,10 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>-0.13602609234329399</v>
+        <v>0.19682653184761831</v>
       </c>
       <c r="B199" s="2">
-        <v>0.19682653184761831</v>
+        <v>0.13602609234329399</v>
       </c>
       <c r="C199" s="2">
         <v>4</v>
@@ -7280,10 +7282,10 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>-0.1212091966836763</v>
+        <v>0.35777828542783208</v>
       </c>
       <c r="B200" s="2">
-        <v>0.35777828542783208</v>
+        <v>0.1212091966836764</v>
       </c>
       <c r="C200" s="2">
         <v>4</v>
@@ -7296,10 +7298,10 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>0.38256174239043228</v>
+        <v>0.36716223473756038</v>
       </c>
       <c r="B201" s="2">
-        <v>0.36716223473756038</v>
+        <v>-0.38256174239043228</v>
       </c>
       <c r="C201" s="2">
         <v>4</v>
@@ -7312,10 +7314,10 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>-5.2294612849393879E-2</v>
+        <v>0.1635878728928685</v>
       </c>
       <c r="B202" s="2">
-        <v>0.1635878728928685</v>
+        <v>5.2294612849393893E-2</v>
       </c>
       <c r="C202" s="2">
         <v>4</v>
@@ -7328,10 +7330,10 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>-7.7243327655354327E-2</v>
+        <v>0.3006845881837108</v>
       </c>
       <c r="B203" s="2">
-        <v>0.3006845881837108</v>
+        <v>7.7243327655354341E-2</v>
       </c>
       <c r="C203" s="2">
         <v>4</v>
@@ -7344,10 +7346,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>-8.2287078272620245E-2</v>
+        <v>0.22533436401039289</v>
       </c>
       <c r="B204" s="2">
-        <v>0.22533436401039289</v>
+        <v>8.2287078272620259E-2</v>
       </c>
       <c r="C204" s="2">
         <v>4</v>
@@ -7360,10 +7362,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>0.37568102493677341</v>
+        <v>0.26152580424019323</v>
       </c>
       <c r="B205" s="2">
-        <v>0.26152580424019323</v>
+        <v>-0.37568102493677341</v>
       </c>
       <c r="C205" s="2">
         <v>4</v>
@@ -7376,16 +7378,16 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>0.1405181946091108</v>
+        <v>0.25394142582212281</v>
       </c>
       <c r="B206" s="2">
-        <v>0.25394142582212281</v>
+        <v>-0.1405181946091108</v>
       </c>
       <c r="C206" s="2">
         <v>4</v>
       </c>
       <c r="D206" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
